--- a/产值日报自动更新/浇筑安装台账.xlsx
+++ b/产值日报自动更新/浇筑安装台账.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7612" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7824" uniqueCount="360">
   <si>
     <t>标段</t>
   </si>
@@ -999,6 +999,15 @@
     <t>会东姜州互通式立交_K349+129_弯德大桥</t>
   </si>
   <si>
+    <t>2022/3/30</t>
+  </si>
+  <si>
+    <t>ZK375+519.0_小柳树左线大桥</t>
+  </si>
+  <si>
+    <t>2022/3/31</t>
+  </si>
+  <si>
     <t>浇筑安装统计</t>
   </si>
   <si>
@@ -1094,12 +1103,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1155,6 +1164,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1186,18 +1211,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1232,16 +1257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,15 +1266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,16 +1279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,7 +1327,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,85 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,19 +1405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,7 +1429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,25 +1447,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,6 +1567,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1569,30 +1596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,11 +1615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,10 +1655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1658,130 +1667,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
@@ -1807,16 +1816,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2137,12 +2146,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P1254"/>
+  <dimension ref="A1:P1283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1234" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1261" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1261" sqref="I1261"/>
+      <selection pane="bottomLeft" activeCell="I1284" sqref="I1284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -58005,6 +58014,12 @@
       <c r="H1137" t="s">
         <v>21</v>
       </c>
+      <c r="I1137" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1137">
+        <v>0.252</v>
+      </c>
       <c r="K1137" s="8">
         <v>670</v>
       </c>
@@ -58093,11 +58108,11 @@
       <c r="H1139" t="s">
         <v>33</v>
       </c>
-      <c r="I1139" s="7">
-        <v>44648</v>
+      <c r="I1139" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="J1139">
-        <v>0.16</v>
+        <v>0.162</v>
       </c>
       <c r="K1139" s="8">
         <v>670</v>
@@ -58891,6 +58906,12 @@
       <c r="H1157" t="s">
         <v>33</v>
       </c>
+      <c r="I1157" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1157">
+        <v>0.162</v>
+      </c>
       <c r="K1157" s="8">
         <v>674.81</v>
       </c>
@@ -58979,6 +59000,12 @@
       <c r="H1159" t="s">
         <v>21</v>
       </c>
+      <c r="I1159" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1159">
+        <v>0.162</v>
+      </c>
       <c r="K1159" s="8">
         <v>537.61</v>
       </c>
@@ -59023,6 +59050,12 @@
       <c r="H1160" t="s">
         <v>21</v>
       </c>
+      <c r="I1160" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1160">
+        <v>0.162</v>
+      </c>
       <c r="K1160" s="8">
         <v>537.61</v>
       </c>
@@ -59111,6 +59144,12 @@
       <c r="H1162" t="s">
         <v>33</v>
       </c>
+      <c r="I1162" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1162">
+        <v>0.162</v>
+      </c>
       <c r="K1162" s="8">
         <v>670</v>
       </c>
@@ -59198,6 +59237,12 @@
       </c>
       <c r="H1164" t="s">
         <v>33</v>
+      </c>
+      <c r="I1164" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1164">
+        <v>0.252</v>
       </c>
       <c r="K1164" s="8">
         <v>670</v>
@@ -59707,6 +59752,12 @@
       <c r="H1175" t="s">
         <v>33</v>
       </c>
+      <c r="I1175" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1175">
+        <v>0.162</v>
+      </c>
       <c r="K1175" s="8">
         <v>670</v>
       </c>
@@ -60323,6 +60374,12 @@
       <c r="H1189" t="s">
         <v>33</v>
       </c>
+      <c r="I1189" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1189">
+        <v>0.162</v>
+      </c>
       <c r="K1189" s="8">
         <v>670</v>
       </c>
@@ -63212,6 +63269,1282 @@
       </c>
       <c r="P1254">
         <v>1589</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:16">
+      <c r="A1255" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1255">
+        <v>76378.15</v>
+      </c>
+      <c r="G1255" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1255">
+        <v>669.9956</v>
+      </c>
+      <c r="L1255">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1255">
+        <v>26.1964</v>
+      </c>
+      <c r="N1255">
+        <v>774.8555</v>
+      </c>
+      <c r="O1255">
+        <v>136.6</v>
+      </c>
+      <c r="P1255">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:16">
+      <c r="A1256" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1256">
+        <v>76150.38</v>
+      </c>
+      <c r="G1256" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1256">
+        <v>429.0793</v>
+      </c>
+      <c r="L1256">
+        <v>4590.8563</v>
+      </c>
+      <c r="M1256">
+        <v>26.0447</v>
+      </c>
+      <c r="N1256">
+        <v>774.8555</v>
+      </c>
+      <c r="O1256">
+        <v>136.6</v>
+      </c>
+      <c r="P1256">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:16">
+      <c r="A1257" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1257">
+        <v>77950.3</v>
+      </c>
+      <c r="G1257" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1257">
+        <v>384.0432</v>
+      </c>
+      <c r="L1257">
+        <v>4961.8474</v>
+      </c>
+      <c r="M1257">
+        <v>25.2923</v>
+      </c>
+      <c r="N1257">
+        <v>832.3199</v>
+      </c>
+      <c r="O1257">
+        <v>136.6</v>
+      </c>
+      <c r="P1257">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:16">
+      <c r="A1258" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1258">
+        <v>78205.19</v>
+      </c>
+      <c r="G1258" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1258">
+        <v>537.6069</v>
+      </c>
+      <c r="L1258">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1258">
+        <v>25.3732</v>
+      </c>
+      <c r="N1258">
+        <v>832.3199</v>
+      </c>
+      <c r="O1258">
+        <v>136.6</v>
+      </c>
+      <c r="P1258">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:16">
+      <c r="A1259" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1259">
+        <v>152769.7</v>
+      </c>
+      <c r="G1259" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1259">
+        <v>1198.4594</v>
+      </c>
+      <c r="L1259">
+        <v>7822.3987</v>
+      </c>
+      <c r="M1259">
+        <v>49.8117</v>
+      </c>
+      <c r="N1259">
+        <v>2351.3066</v>
+      </c>
+      <c r="O1259">
+        <v>185.76</v>
+      </c>
+      <c r="P1259">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:16">
+      <c r="A1260" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1260">
+        <v>78205.19</v>
+      </c>
+      <c r="G1260" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1260">
+        <v>537.6069</v>
+      </c>
+      <c r="L1260">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1260">
+        <v>25.3732</v>
+      </c>
+      <c r="N1260">
+        <v>832.3199</v>
+      </c>
+      <c r="O1260">
+        <v>136.6</v>
+      </c>
+      <c r="P1260">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:16">
+      <c r="A1261" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1261">
+        <v>76378.15</v>
+      </c>
+      <c r="G1261" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1261">
+        <v>669.9956</v>
+      </c>
+      <c r="L1261">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1261">
+        <v>26.1964</v>
+      </c>
+      <c r="N1261">
+        <v>774.8555</v>
+      </c>
+      <c r="O1261">
+        <v>136.6</v>
+      </c>
+      <c r="P1261">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:16">
+      <c r="A1262" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1262">
+        <v>78205.19</v>
+      </c>
+      <c r="G1262" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1262">
+        <v>537.6069</v>
+      </c>
+      <c r="L1262">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1262">
+        <v>25.3732</v>
+      </c>
+      <c r="N1262">
+        <v>832.3199</v>
+      </c>
+      <c r="O1262">
+        <v>136.6</v>
+      </c>
+      <c r="P1262">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:16">
+      <c r="A1263" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1263">
+        <v>76378.15</v>
+      </c>
+      <c r="G1263" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1263">
+        <v>669.9956</v>
+      </c>
+      <c r="L1263">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1263">
+        <v>26.1964</v>
+      </c>
+      <c r="N1263">
+        <v>774.8555</v>
+      </c>
+      <c r="O1263">
+        <v>136.6</v>
+      </c>
+      <c r="P1263">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:16">
+      <c r="A1264" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1264">
+        <v>76150.38</v>
+      </c>
+      <c r="G1264" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1264">
+        <v>429.0793</v>
+      </c>
+      <c r="L1264">
+        <v>4590.8563</v>
+      </c>
+      <c r="M1264">
+        <v>26.0447</v>
+      </c>
+      <c r="N1264">
+        <v>774.8555</v>
+      </c>
+      <c r="O1264">
+        <v>136.6</v>
+      </c>
+      <c r="P1264">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:16">
+      <c r="A1265" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1265">
+        <v>78205.19</v>
+      </c>
+      <c r="G1265" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1265">
+        <v>537.6069</v>
+      </c>
+      <c r="L1265">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1265">
+        <v>25.3732</v>
+      </c>
+      <c r="N1265">
+        <v>832.3199</v>
+      </c>
+      <c r="O1265">
+        <v>136.6</v>
+      </c>
+      <c r="P1265">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:16">
+      <c r="A1266" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1266">
+        <v>152769.7</v>
+      </c>
+      <c r="G1266" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1266">
+        <v>1198.4594</v>
+      </c>
+      <c r="L1266">
+        <v>7822.3987</v>
+      </c>
+      <c r="M1266">
+        <v>49.8117</v>
+      </c>
+      <c r="N1266">
+        <v>2351.3066</v>
+      </c>
+      <c r="O1266">
+        <v>185.76</v>
+      </c>
+      <c r="P1266">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:16">
+      <c r="A1267" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1267">
+        <v>76378.15</v>
+      </c>
+      <c r="G1267" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1267">
+        <v>669.9956</v>
+      </c>
+      <c r="L1267">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1267">
+        <v>26.1964</v>
+      </c>
+      <c r="N1267">
+        <v>774.8555</v>
+      </c>
+      <c r="O1267">
+        <v>136.6</v>
+      </c>
+      <c r="P1267">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:16">
+      <c r="A1268" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1268">
+        <v>78205.19</v>
+      </c>
+      <c r="G1268" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1268">
+        <v>537.6069</v>
+      </c>
+      <c r="L1268">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1268">
+        <v>25.3732</v>
+      </c>
+      <c r="N1268">
+        <v>832.3199</v>
+      </c>
+      <c r="O1268">
+        <v>136.6</v>
+      </c>
+      <c r="P1268">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:16">
+      <c r="A1269" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1269">
+        <v>152769.7</v>
+      </c>
+      <c r="G1269" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1269">
+        <v>1198.4594</v>
+      </c>
+      <c r="L1269">
+        <v>7822.3987</v>
+      </c>
+      <c r="M1269">
+        <v>49.8117</v>
+      </c>
+      <c r="N1269">
+        <v>2351.3066</v>
+      </c>
+      <c r="O1269">
+        <v>185.76</v>
+      </c>
+      <c r="P1269">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:16">
+      <c r="A1270" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1270">
+        <v>152769.7</v>
+      </c>
+      <c r="G1270" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1270">
+        <v>1198.4594</v>
+      </c>
+      <c r="L1270">
+        <v>7822.3987</v>
+      </c>
+      <c r="M1270">
+        <v>49.8117</v>
+      </c>
+      <c r="N1270">
+        <v>2351.3066</v>
+      </c>
+      <c r="O1270">
+        <v>185.76</v>
+      </c>
+      <c r="P1270">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:16">
+      <c r="A1271" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1271">
+        <v>152905.93</v>
+      </c>
+      <c r="G1271" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1271">
+        <v>918.1571</v>
+      </c>
+      <c r="L1271">
+        <v>8560.9896</v>
+      </c>
+      <c r="M1271">
+        <v>47.7758</v>
+      </c>
+      <c r="N1271">
+        <v>2351.3066</v>
+      </c>
+      <c r="O1271">
+        <v>185.76</v>
+      </c>
+      <c r="P1271">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:16">
+      <c r="A1272" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1272">
+        <v>76378.15</v>
+      </c>
+      <c r="G1272" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1272">
+        <v>669.9956</v>
+      </c>
+      <c r="L1272">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1272">
+        <v>26.1964</v>
+      </c>
+      <c r="N1272">
+        <v>774.8555</v>
+      </c>
+      <c r="O1272">
+        <v>136.6</v>
+      </c>
+      <c r="P1272">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:16">
+      <c r="A1273" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1273">
+        <v>78205.19</v>
+      </c>
+      <c r="G1273" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1273">
+        <v>537.6069</v>
+      </c>
+      <c r="L1273">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1273">
+        <v>25.3732</v>
+      </c>
+      <c r="N1273">
+        <v>832.3199</v>
+      </c>
+      <c r="O1273">
+        <v>136.6</v>
+      </c>
+      <c r="P1273">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:16">
+      <c r="A1274" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1274">
+        <v>78205.19</v>
+      </c>
+      <c r="G1274" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1274">
+        <v>537.6069</v>
+      </c>
+      <c r="L1274">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1274">
+        <v>25.3732</v>
+      </c>
+      <c r="N1274">
+        <v>832.3199</v>
+      </c>
+      <c r="O1274">
+        <v>136.6</v>
+      </c>
+      <c r="P1274">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:16">
+      <c r="A1275" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1275">
+        <v>152769.7</v>
+      </c>
+      <c r="G1275" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1275">
+        <v>1198.4594</v>
+      </c>
+      <c r="L1275">
+        <v>7822.3987</v>
+      </c>
+      <c r="M1275">
+        <v>49.8117</v>
+      </c>
+      <c r="N1275">
+        <v>2351.3066</v>
+      </c>
+      <c r="O1275">
+        <v>185.76</v>
+      </c>
+      <c r="P1275">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:16">
+      <c r="A1276" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1276">
+        <v>76378.15</v>
+      </c>
+      <c r="G1276" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1276">
+        <v>669.9956</v>
+      </c>
+      <c r="L1276">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1276">
+        <v>26.1964</v>
+      </c>
+      <c r="N1276">
+        <v>774.8555</v>
+      </c>
+      <c r="O1276">
+        <v>136.6</v>
+      </c>
+      <c r="P1276">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:16">
+      <c r="A1277" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1277">
+        <v>152769.7</v>
+      </c>
+      <c r="G1277" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1277">
+        <v>1198.4594</v>
+      </c>
+      <c r="L1277">
+        <v>7822.3987</v>
+      </c>
+      <c r="M1277">
+        <v>49.8117</v>
+      </c>
+      <c r="N1277">
+        <v>2351.3066</v>
+      </c>
+      <c r="O1277">
+        <v>185.76</v>
+      </c>
+      <c r="P1277">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:16">
+      <c r="A1278" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1278">
+        <v>76378.15</v>
+      </c>
+      <c r="G1278" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1278">
+        <v>669.9956</v>
+      </c>
+      <c r="L1278">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1278">
+        <v>26.1964</v>
+      </c>
+      <c r="N1278">
+        <v>774.8555</v>
+      </c>
+      <c r="O1278">
+        <v>136.6</v>
+      </c>
+      <c r="P1278">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:16">
+      <c r="A1279" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1279">
+        <v>76378.15</v>
+      </c>
+      <c r="G1279" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1279">
+        <v>669.9956</v>
+      </c>
+      <c r="L1279">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1279">
+        <v>26.1964</v>
+      </c>
+      <c r="N1279">
+        <v>774.8555</v>
+      </c>
+      <c r="O1279">
+        <v>136.6</v>
+      </c>
+      <c r="P1279">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:16">
+      <c r="A1280" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1280">
+        <v>78205.19</v>
+      </c>
+      <c r="G1280" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1280">
+        <v>537.6069</v>
+      </c>
+      <c r="L1280">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1280">
+        <v>25.3732</v>
+      </c>
+      <c r="N1280">
+        <v>832.3199</v>
+      </c>
+      <c r="O1280">
+        <v>136.6</v>
+      </c>
+      <c r="P1280">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:16">
+      <c r="A1281" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1281">
+        <v>76378.15</v>
+      </c>
+      <c r="G1281" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1281">
+        <v>669.9956</v>
+      </c>
+      <c r="L1281">
+        <v>4336.7935</v>
+      </c>
+      <c r="M1281">
+        <v>26.1964</v>
+      </c>
+      <c r="N1281">
+        <v>774.8555</v>
+      </c>
+      <c r="O1281">
+        <v>136.6</v>
+      </c>
+      <c r="P1281">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:16">
+      <c r="A1282" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1282">
+        <v>78205.19</v>
+      </c>
+      <c r="G1282" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1282">
+        <v>537.6069</v>
+      </c>
+      <c r="L1282">
+        <v>4820.5392</v>
+      </c>
+      <c r="M1282">
+        <v>25.3732</v>
+      </c>
+      <c r="N1282">
+        <v>832.3199</v>
+      </c>
+      <c r="O1282">
+        <v>136.6</v>
+      </c>
+      <c r="P1282">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:16">
+      <c r="A1283" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1283">
+        <v>76150.38</v>
+      </c>
+      <c r="G1283" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1283">
+        <v>429.0793</v>
+      </c>
+      <c r="L1283">
+        <v>4590.8563</v>
+      </c>
+      <c r="M1283">
+        <v>26.0447</v>
+      </c>
+      <c r="N1283">
+        <v>774.8555</v>
+      </c>
+      <c r="O1283">
+        <v>136.6</v>
+      </c>
+      <c r="P1283">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -63237,24 +64570,24 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V2" t="s">
         <v>7</v>
@@ -63268,15 +64601,15 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1">
         <f>COUNTIFS(浇筑安装总台账!$D:$D,"25m",浇筑安装总台账!$H:$H,"1#智慧梁厂")</f>
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1">
         <f>COUNTIFS(浇筑安装总台账!$D:$D,"40m",浇筑安装总台账!$H:$H,"1#智慧梁厂")</f>
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1">
         <f>DCOUNT(浇筑安装总台账!$A:$J,9,V2:X3)</f>
@@ -63293,24 +64626,24 @@
         <v>19</v>
       </c>
       <c r="X3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1">
         <f>COUNTIFS(浇筑安装总台账!$D:$D,"25m",浇筑安装总台账!$H:$H,"2#智慧梁厂")</f>
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C4" s="1">
         <f>COUNTIFS(浇筑安装总台账!$D:$D,"40m",浇筑安装总台账!$H:$H,"2#智慧梁厂")</f>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1">
         <f>DCOUNT(浇筑安装总台账!$A:$J,9,V6:X7)</f>
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E4" s="1">
         <f>DCOUNT(浇筑安装总台账!$A:$J,9,V8:X9)</f>
@@ -63328,19 +64661,19 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4</f>
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="C5" s="4">
         <f>C3+C4</f>
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D5" s="4">
         <f>D3+D4</f>
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E5" s="4">
         <f>E3+E4</f>
@@ -63353,7 +64686,7 @@
         <v>44</v>
       </c>
       <c r="X5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="22:24">
@@ -63369,16 +64702,16 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
         <v>337</v>
-      </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -63386,16 +64719,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V8" t="s">
         <v>7</v>
@@ -63413,11 +64746,11 @@
       </c>
       <c r="B9" s="1">
         <f>COUNTIFS(浇筑安装总台账!$A:$A,"ZCB1-12",浇筑安装总台账!$D:$D,"25m")</f>
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1">
         <f>COUNTIFS(浇筑安装总台账!$A:$A,"ZCB1-12",浇筑安装总台账!$D:$D,"40m")</f>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -63428,7 +64761,7 @@
         <v>44</v>
       </c>
       <c r="X9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -63437,11 +64770,11 @@
       </c>
       <c r="B10" s="1">
         <f>COUNTIFS(浇筑安装总台账!$A:$A,"ZCB1-13",浇筑安装总台账!$D:$D,"25m")</f>
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="C10" s="1">
         <f>COUNTIFS(浇筑安装总台账!$A:$A,"ZCB1-13",浇筑安装总台账!$D:$D,"40m")</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -63456,14 +64789,14 @@
       </c>
       <c r="C11" s="1">
         <f>COUNTIFS(浇筑安装总台账!$A:$A,"ZCB1-14",浇筑安装总台账!$D:$D,"40m")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B12" s="1">
         <f>COUNTIFS(浇筑安装总台账!$A:$A,"ZCB1-15",浇筑安装总台账!$D:$D,"25m")</f>
@@ -63478,7 +64811,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -63513,10 +64846,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -63527,7 +64860,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -63538,7 +64871,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -63549,7 +64882,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -63560,7 +64893,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -63571,7 +64904,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -63582,7 +64915,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -63593,7 +64926,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -63604,7 +64937,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -63615,7 +64948,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -63626,7 +64959,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -63637,7 +64970,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -63648,7 +64981,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -63659,7 +64992,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -63670,7 +65003,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -63681,7 +65014,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -63692,7 +65025,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>

--- a/产值日报自动更新/浇筑安装台账.xlsx
+++ b/产值日报自动更新/浇筑安装台账.xlsx
@@ -1103,11 +1103,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
@@ -1150,28 +1150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1182,6 +1160,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,6 +1187,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1210,17 +1202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,6 +1240,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -1266,14 +1257,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,7 +1288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,7 +1327,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,37 +1387,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,67 +1471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,19 +1483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,31 +1495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,6 +1553,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1571,7 +1586,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,22 +1595,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1632,20 +1632,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,10 +1655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1667,133 +1667,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:P1283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1261" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1259" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I1284" sqref="I1284"/>
     </sheetView>
